--- a/2022 Весенний семестр/Практическое задание 14/Результаты задания №14.xlsx
+++ b/2022 Весенний семестр/Практическое задание 14/Результаты задания №14.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="task4_results" localSheetId="0">Лист1!$A$1:$B$18</definedName>
+    <definedName name="task4_results" localSheetId="0">Лист2!$A$1:$B$22</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -18,7 +18,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="task4_results" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="1" name="task4_results1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="H:\Documents\Projects\JupyterWorkspace\mgotu-2022-1\task4_results.csv" decimal="," thousands=" " comma="1">
       <textFields count="2">
         <textField/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Якимов - задание 14.csv</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>Баллы</t>
+  </si>
+  <si>
+    <t>Кондратьев 14 ПР_1.csv</t>
+  </si>
+  <si>
+    <t>task4_Fakhrutdinov_1.csv</t>
+  </si>
+  <si>
+    <t>Shatokhin-Zadanie_14_1.csv</t>
+  </si>
+  <si>
+    <t>Севастьянов_1.csv</t>
   </si>
 </sst>
 </file>
@@ -453,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +501,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -500,7 +512,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -511,7 +523,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -522,7 +534,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -533,7 +545,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -544,7 +556,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -555,7 +567,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -621,7 +633,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -632,31 +644,75 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
